--- a/simulation_data/iterative_algorithm/i_error_level_2_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_2_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.08895206168405</v>
+        <v>90.02614722167293</v>
       </c>
       <c r="D2" t="n">
-        <v>3.585865731112524</v>
+        <v>3.174096832163874</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.87224715799758</v>
+        <v>89.00833855772288</v>
       </c>
       <c r="D3" t="n">
-        <v>3.574192216110642</v>
+        <v>3.585087299399424</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.45143066093266</v>
+        <v>88.2432210529325</v>
       </c>
       <c r="D4" t="n">
-        <v>3.653793512083939</v>
+        <v>3.510238776234273</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.43053684130886</v>
+        <v>86.78379442305604</v>
       </c>
       <c r="D5" t="n">
-        <v>3.37352036930285</v>
+        <v>3.356150787321699</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.57726504399663</v>
+        <v>85.86318516514164</v>
       </c>
       <c r="D6" t="n">
-        <v>3.414303937753178</v>
+        <v>3.270314585922056</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.74540006627311</v>
+        <v>84.49226054068171</v>
       </c>
       <c r="D7" t="n">
-        <v>3.498305081882438</v>
+        <v>3.953341174764744</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.74293927454951</v>
+        <v>83.72041491187214</v>
       </c>
       <c r="D8" t="n">
-        <v>3.286994863548268</v>
+        <v>3.2411905119066</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.14024697815616</v>
+        <v>82.99817181999556</v>
       </c>
       <c r="D9" t="n">
-        <v>3.546841858443258</v>
+        <v>3.262012301045449</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.46776451651498</v>
+        <v>82.49448030217556</v>
       </c>
       <c r="D10" t="n">
-        <v>3.742924411957166</v>
+        <v>3.477174132110052</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.24234385058229</v>
+        <v>80.96118669473036</v>
       </c>
       <c r="D11" t="n">
-        <v>4.194198544599004</v>
+        <v>4.22714797163737</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.51422574558654</v>
+        <v>79.37587833304737</v>
       </c>
       <c r="D12" t="n">
-        <v>3.207171502862685</v>
+        <v>3.408306425779317</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.35414708397543</v>
+        <v>78.62267858070123</v>
       </c>
       <c r="D13" t="n">
-        <v>3.629053949324606</v>
+        <v>3.309148602155333</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.83255994963811</v>
+        <v>77.90160619389272</v>
       </c>
       <c r="D14" t="n">
-        <v>3.492981172819699</v>
+        <v>2.948910110786848</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.54992604735716</v>
+        <v>76.63803949813963</v>
       </c>
       <c r="D15" t="n">
-        <v>3.123405471758582</v>
+        <v>2.793349812792024</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.76870052504459</v>
+        <v>76.04624090764688</v>
       </c>
       <c r="D16" t="n">
-        <v>3.861282400942973</v>
+        <v>3.42316838478402</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.37205368845733</v>
+        <v>74.77181445919788</v>
       </c>
       <c r="D17" t="n">
-        <v>3.66845569909365</v>
+        <v>3.377320003834642</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.98166903047186</v>
+        <v>73.75220274708236</v>
       </c>
       <c r="D18" t="n">
-        <v>4.148839090864372</v>
+        <v>3.18270133243358</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.28153760577995</v>
+        <v>73.27879808063541</v>
       </c>
       <c r="D19" t="n">
-        <v>4.180187972137573</v>
+        <v>3.7672780527889</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.99099616274511</v>
+        <v>71.84628837444471</v>
       </c>
       <c r="D20" t="n">
-        <v>3.401613248063913</v>
+        <v>3.504106978192005</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.65381482905444</v>
+        <v>71.34316303758864</v>
       </c>
       <c r="D21" t="n">
-        <v>3.76940518797181</v>
+        <v>3.670170673303494</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.82364233517406</v>
+        <v>68.9330396592286</v>
       </c>
       <c r="D22" t="n">
-        <v>3.67949288259353</v>
+        <v>3.716235998125396</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.75605981331344</v>
+        <v>68.32905893498371</v>
       </c>
       <c r="D23" t="n">
-        <v>4.128014433641101</v>
+        <v>3.492534121535654</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.96676572877318</v>
+        <v>67.83318112619861</v>
       </c>
       <c r="D24" t="n">
-        <v>3.815536260146344</v>
+        <v>3.423866949580905</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.27682744271073</v>
+        <v>67.19093596282345</v>
       </c>
       <c r="D25" t="n">
-        <v>3.194141832668382</v>
+        <v>3.359541659574237</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.02173907682275</v>
+        <v>66.44759699145385</v>
       </c>
       <c r="D26" t="n">
-        <v>3.746122256839743</v>
+        <v>3.14995283508757</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.19219437343838</v>
+        <v>64.90868670026993</v>
       </c>
       <c r="D27" t="n">
-        <v>3.797293177984135</v>
+        <v>3.159291090330545</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.5956180622218</v>
+        <v>64.37529105171134</v>
       </c>
       <c r="D28" t="n">
-        <v>3.618593985855089</v>
+        <v>3.288734959405105</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.10690304910796</v>
+        <v>63.24543007257724</v>
       </c>
       <c r="D29" t="n">
-        <v>3.750744774039781</v>
+        <v>3.530336513561153</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.74744888857474</v>
+        <v>61.82543224557372</v>
       </c>
       <c r="D30" t="n">
-        <v>3.86719546735258</v>
+        <v>3.469920581174917</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.68977562201547</v>
+        <v>61.12949017263261</v>
       </c>
       <c r="D31" t="n">
-        <v>3.202411029348514</v>
+        <v>3.407975400600054</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.15822098804811</v>
+        <v>59.59154433343412</v>
       </c>
       <c r="D32" t="n">
-        <v>3.45330662662537</v>
+        <v>3.439039053616975</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.38546302324559</v>
+        <v>57.98526759503424</v>
       </c>
       <c r="D33" t="n">
-        <v>3.597908397075767</v>
+        <v>3.501512654977014</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.69165836071567</v>
+        <v>58.14482932665776</v>
       </c>
       <c r="D34" t="n">
-        <v>3.635617633014317</v>
+        <v>3.638403383096753</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.8422744473182</v>
+        <v>57.01932525295052</v>
       </c>
       <c r="D35" t="n">
-        <v>4.044208332815555</v>
+        <v>3.766015010602171</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.03521687309503</v>
+        <v>55.78061965802485</v>
       </c>
       <c r="D36" t="n">
-        <v>3.607736447222871</v>
+        <v>3.354318518501298</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.61911165708248</v>
+        <v>54.5430174365173</v>
       </c>
       <c r="D37" t="n">
-        <v>3.495991055816916</v>
+        <v>3.882145261747988</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.26978754087108</v>
+        <v>53.86306578060162</v>
       </c>
       <c r="D38" t="n">
-        <v>3.587025165530248</v>
+        <v>3.383230581523495</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.36882077270124</v>
+        <v>52.92718106032742</v>
       </c>
       <c r="D39" t="n">
-        <v>3.791567973368727</v>
+        <v>3.390179949821753</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.52490055160096</v>
+        <v>52.26511353901438</v>
       </c>
       <c r="D40" t="n">
-        <v>3.540251040913657</v>
+        <v>3.886212309391941</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.25692013919129</v>
+        <v>50.25673105487898</v>
       </c>
       <c r="D41" t="n">
-        <v>3.597254109402442</v>
+        <v>3.077711291270319</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.07452977487787</v>
+        <v>49.64295188508627</v>
       </c>
       <c r="D42" t="n">
-        <v>3.4327012624025</v>
+        <v>2.959245197104181</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81235567229975</v>
+        <v>48.95091740189368</v>
       </c>
       <c r="D43" t="n">
-        <v>3.667678639393544</v>
+        <v>3.470911746371656</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.69297332876301</v>
+        <v>48.03882293270756</v>
       </c>
       <c r="D44" t="n">
-        <v>3.626985891104869</v>
+        <v>3.326471716562071</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.22029483601117</v>
+        <v>47.08091932889193</v>
       </c>
       <c r="D45" t="n">
-        <v>3.608662399686239</v>
+        <v>3.889441576134129</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.75342423073826</v>
+        <v>46.05479725557065</v>
       </c>
       <c r="D46" t="n">
-        <v>3.922412239740023</v>
+        <v>3.318446653928651</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.44565282134805</v>
+        <v>45.44292133699013</v>
       </c>
       <c r="D47" t="n">
-        <v>3.440892214665283</v>
+        <v>3.726357695629969</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.65872064298716</v>
+        <v>44.38715994206171</v>
       </c>
       <c r="D48" t="n">
-        <v>3.723454459214505</v>
+        <v>3.210283937044393</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.42655272555949</v>
+        <v>42.77374310950775</v>
       </c>
       <c r="D49" t="n">
-        <v>3.399876872335656</v>
+        <v>3.491557012468709</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.01844888205199</v>
+        <v>41.88809043060369</v>
       </c>
       <c r="D50" t="n">
-        <v>4.038636597769936</v>
+        <v>3.689976644931616</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.07102947966893</v>
+        <v>41.18785516798659</v>
       </c>
       <c r="D51" t="n">
-        <v>3.966536909405305</v>
+        <v>3.540566032869792</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.50986080352453</v>
+        <v>39.80822527049111</v>
       </c>
       <c r="D52" t="n">
-        <v>3.399498716332024</v>
+        <v>3.857377138394873</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.14155095546325</v>
+        <v>38.76252824213942</v>
       </c>
       <c r="D53" t="n">
-        <v>3.724055032189565</v>
+        <v>3.298942601916637</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.02082154933981</v>
+        <v>37.60191624886924</v>
       </c>
       <c r="D54" t="n">
-        <v>3.582682262070968</v>
+        <v>3.093864554273922</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.52192673715311</v>
+        <v>37.39323104819652</v>
       </c>
       <c r="D55" t="n">
-        <v>3.978375084241051</v>
+        <v>3.123325693729176</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.83786632332354</v>
+        <v>36.15383173341171</v>
       </c>
       <c r="D56" t="n">
-        <v>3.911108306338054</v>
+        <v>3.685634911095342</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.03175140187835</v>
+        <v>34.25138288882693</v>
       </c>
       <c r="D57" t="n">
-        <v>3.504826228415752</v>
+        <v>3.163443689229032</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.21632133784975</v>
+        <v>34.31690887957297</v>
       </c>
       <c r="D58" t="n">
-        <v>3.496194373285382</v>
+        <v>3.759151475327861</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.39862018765663</v>
+        <v>32.84749391748355</v>
       </c>
       <c r="D59" t="n">
-        <v>3.795597961513308</v>
+        <v>3.365110555761448</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.54620780606805</v>
+        <v>32.39294170272952</v>
       </c>
       <c r="D60" t="n">
-        <v>3.986024933600379</v>
+        <v>3.248076310836796</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.32999080472426</v>
+        <v>31.29004459016531</v>
       </c>
       <c r="D61" t="n">
-        <v>3.615974081616608</v>
+        <v>3.846337217772469</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.61271048076963</v>
+        <v>29.90874581350835</v>
       </c>
       <c r="D62" t="n">
-        <v>3.168042589557754</v>
+        <v>3.787279250671864</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.35706624195042</v>
+        <v>29.21277420418682</v>
       </c>
       <c r="D63" t="n">
-        <v>3.905014978594144</v>
+        <v>3.501433739071862</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.20271431900711</v>
+        <v>28.70151056685999</v>
       </c>
       <c r="D64" t="n">
-        <v>3.886094443592836</v>
+        <v>3.932719896116285</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.07240670932579</v>
+        <v>27.13127714986557</v>
       </c>
       <c r="D65" t="n">
-        <v>3.192479844861182</v>
+        <v>4.062505476672354</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.49426102358131</v>
+        <v>25.48510683203757</v>
       </c>
       <c r="D66" t="n">
-        <v>3.168858624471864</v>
+        <v>3.517436463924721</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.29357647657131</v>
+        <v>25.18732125916974</v>
       </c>
       <c r="D67" t="n">
-        <v>3.864763518797323</v>
+        <v>4.210860676971212</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.71744672825485</v>
+        <v>23.83613891654199</v>
       </c>
       <c r="D68" t="n">
-        <v>3.757684218688919</v>
+        <v>3.853380589771203</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.05492718304755</v>
+        <v>23.4561308522608</v>
       </c>
       <c r="D69" t="n">
-        <v>3.559604793144613</v>
+        <v>3.43275096382686</v>
       </c>
     </row>
   </sheetData>
